--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2977.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2977.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.197361819512164</v>
+        <v>1.720118880271912</v>
       </c>
       <c r="B1">
-        <v>2.515862711503926</v>
+        <v>2.714961528778076</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.921954154968262</v>
       </c>
       <c r="D1">
-        <v>2.254203609799196</v>
+        <v>3.294327020645142</v>
       </c>
       <c r="E1">
-        <v>1.189177602668783</v>
+        <v>2.475978136062622</v>
       </c>
     </row>
   </sheetData>
